--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/CAN.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/CAN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>8.72318172454834</v>
+        <v>13.05258464813232</v>
       </c>
       <c r="C2" t="n">
-        <v>7.299028396606445</v>
+        <v>12.7371768951416</v>
       </c>
       <c r="D2" t="n">
-        <v>10.14733505249023</v>
+        <v>13.36799240112305</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>8.820749282836914</v>
+        <v>12.36834239959717</v>
       </c>
       <c r="C3" t="n">
-        <v>7.062404632568359</v>
+        <v>12.14614772796631</v>
       </c>
       <c r="D3" t="n">
-        <v>10.57909393310547</v>
+        <v>12.59053707122803</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>9.019534111022949</v>
+        <v>11.36110019683838</v>
       </c>
       <c r="C4" t="n">
-        <v>7.346077919006348</v>
+        <v>11.14694786071777</v>
       </c>
       <c r="D4" t="n">
-        <v>10.69299030303955</v>
+        <v>11.57525253295898</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>8.47182559967041</v>
+        <v>10.53198432922363</v>
       </c>
       <c r="C5" t="n">
-        <v>6.468778610229492</v>
+        <v>10.08934688568115</v>
       </c>
       <c r="D5" t="n">
-        <v>10.47487258911133</v>
+        <v>10.97462177276611</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>8.79777717590332</v>
+        <v>9.839085578918457</v>
       </c>
       <c r="C6" t="n">
-        <v>6.351924419403076</v>
+        <v>9.479395866394043</v>
       </c>
       <c r="D6" t="n">
-        <v>11.24362945556641</v>
+        <v>10.19877529144287</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>8.356520652770996</v>
+        <v>9.493956565856934</v>
       </c>
       <c r="C7" t="n">
-        <v>6.856359481811523</v>
+        <v>9.258344650268555</v>
       </c>
       <c r="D7" t="n">
-        <v>9.856681823730469</v>
+        <v>9.729568481445312</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>8.677693367004395</v>
+        <v>9.30342960357666</v>
       </c>
       <c r="C8" t="n">
-        <v>6.538002967834473</v>
+        <v>9.09322452545166</v>
       </c>
       <c r="D8" t="n">
-        <v>10.81738376617432</v>
+        <v>9.51363468170166</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>8.578485488891602</v>
+        <v>9.294742584228516</v>
       </c>
       <c r="C9" t="n">
-        <v>7.422666072845459</v>
+        <v>9.177952766418457</v>
       </c>
       <c r="D9" t="n">
-        <v>9.734305381774902</v>
+        <v>9.411532402038574</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>8.008584976196289</v>
+        <v>9.253290176391602</v>
       </c>
       <c r="C10" t="n">
-        <v>7.068964958190918</v>
+        <v>9.125858306884766</v>
       </c>
       <c r="D10" t="n">
-        <v>8.94820499420166</v>
+        <v>9.380722045898438</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>8.463635444641113</v>
+        <v>9.219747543334961</v>
       </c>
       <c r="C11" t="n">
-        <v>7.283388614654541</v>
+        <v>9.056210517883301</v>
       </c>
       <c r="D11" t="n">
-        <v>9.643882751464844</v>
+        <v>9.383284568786621</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>8.848386764526367</v>
+        <v>9.256701469421387</v>
       </c>
       <c r="C12" t="n">
-        <v>6.964274406433105</v>
+        <v>9.118569374084473</v>
       </c>
       <c r="D12" t="n">
-        <v>10.73249912261963</v>
+        <v>9.394833564758301</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>8.39513111114502</v>
+        <v>9.231602668762207</v>
       </c>
       <c r="C13" t="n">
-        <v>6.755691528320312</v>
+        <v>9.141510963439941</v>
       </c>
       <c r="D13" t="n">
-        <v>10.03457069396973</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8.961708068847656</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.043227195739746</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.88018894195557</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8.237638473510742</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.552954196929932</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.922323226928711</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9.181753158569336</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.446531772613525</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.9169750213623</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8.174920082092285</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.298476219177246</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10.05136394500732</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>8.854665756225586</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.574743270874023</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.13458824157715</v>
+        <v>9.321694374084473</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.200982856750489</v>
+        <v>9.226045608520508</v>
       </c>
       <c r="C2" t="n">
-        <v>6.277786780090183</v>
+        <v>9.080645561218262</v>
       </c>
       <c r="D2" t="n">
-        <v>12.12417893341079</v>
+        <v>9.371445655822754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>11.32142677307129</v>
+        <v>9.253645896911621</v>
       </c>
       <c r="C3" t="n">
-        <v>8.850676894863195</v>
+        <v>9.089729309082031</v>
       </c>
       <c r="D3" t="n">
-        <v>13.79217665127938</v>
+        <v>9.417562484741211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>11.7325400352478</v>
+        <v>9.219419479370117</v>
       </c>
       <c r="C4" t="n">
-        <v>9.441530658230249</v>
+        <v>9.139858245849609</v>
       </c>
       <c r="D4" t="n">
-        <v>14.02354941226536</v>
+        <v>9.298980712890625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>10.36370525360107</v>
+        <v>9.24952507019043</v>
       </c>
       <c r="C5" t="n">
-        <v>6.749320926656772</v>
+        <v>9.072136878967285</v>
       </c>
       <c r="D5" t="n">
-        <v>13.97808958054538</v>
+        <v>9.426913261413574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>8.776940441131591</v>
+        <v>9.282328605651855</v>
       </c>
       <c r="C6" t="n">
-        <v>7.092558205588518</v>
+        <v>9.17258358001709</v>
       </c>
       <c r="D6" t="n">
-        <v>10.46132267667467</v>
+        <v>9.392073631286621</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>10.34854698181152</v>
+        <v>13.45170879364014</v>
       </c>
       <c r="C2" t="n">
-        <v>8.340118408203125</v>
+        <v>12.81339359283447</v>
       </c>
       <c r="D2" t="n">
-        <v>12.35697555541992</v>
+        <v>14.0900239944458</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>10.13059520721436</v>
+        <v>12.36412811279297</v>
       </c>
       <c r="C3" t="n">
-        <v>8.269894599914551</v>
+        <v>11.98216819763184</v>
       </c>
       <c r="D3" t="n">
-        <v>11.99129581451416</v>
+        <v>12.7460880279541</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>9.492451667785645</v>
+        <v>11.63916683197021</v>
       </c>
       <c r="C4" t="n">
-        <v>8.198192596435547</v>
+        <v>11.49718189239502</v>
       </c>
       <c r="D4" t="n">
-        <v>10.78671073913574</v>
+        <v>11.78115177154541</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>9.960813522338867</v>
+        <v>10.91299724578857</v>
       </c>
       <c r="C5" t="n">
-        <v>7.857198715209961</v>
+        <v>10.61310195922852</v>
       </c>
       <c r="D5" t="n">
-        <v>12.06442832946777</v>
+        <v>11.21289253234863</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>9.66609001159668</v>
+        <v>10.51988983154297</v>
       </c>
       <c r="C6" t="n">
-        <v>8.274265289306641</v>
+        <v>10.19546604156494</v>
       </c>
       <c r="D6" t="n">
-        <v>11.05791473388672</v>
+        <v>10.844313621521</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>9.894441604614258</v>
+        <v>10.00455570220947</v>
       </c>
       <c r="C7" t="n">
-        <v>8.531039237976074</v>
+        <v>9.937497138977051</v>
       </c>
       <c r="D7" t="n">
-        <v>11.25784397125244</v>
+        <v>10.07161426544189</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>10.28536415100098</v>
+        <v>9.937032699584961</v>
       </c>
       <c r="C8" t="n">
-        <v>7.297273635864258</v>
+        <v>9.856051445007324</v>
       </c>
       <c r="D8" t="n">
-        <v>13.2734546661377</v>
+        <v>10.0180139541626</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>10.34536933898926</v>
+        <v>9.875170707702637</v>
       </c>
       <c r="C9" t="n">
-        <v>7.997781276702881</v>
+        <v>9.775787353515625</v>
       </c>
       <c r="D9" t="n">
-        <v>12.69295692443848</v>
+        <v>9.974554061889648</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>10.77972412109375</v>
+        <v>9.917913436889648</v>
       </c>
       <c r="C10" t="n">
-        <v>8.88090991973877</v>
+        <v>9.832633972167969</v>
       </c>
       <c r="D10" t="n">
-        <v>12.67853832244873</v>
+        <v>10.00319290161133</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>9.948844909667969</v>
+        <v>9.873844146728516</v>
       </c>
       <c r="C11" t="n">
-        <v>8.396242141723633</v>
+        <v>9.769100189208984</v>
       </c>
       <c r="D11" t="n">
-        <v>11.5014476776123</v>
+        <v>9.978588104248047</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>9.024524688720703</v>
+        <v>9.891664505004883</v>
       </c>
       <c r="C12" t="n">
-        <v>7.12628698348999</v>
+        <v>9.797926902770996</v>
       </c>
       <c r="D12" t="n">
-        <v>10.92276191711426</v>
+        <v>9.98540210723877</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>10.55401039123535</v>
+        <v>9.875258445739746</v>
       </c>
       <c r="C13" t="n">
-        <v>8.988299369812012</v>
+        <v>9.747943878173828</v>
       </c>
       <c r="D13" t="n">
-        <v>12.11972141265869</v>
+        <v>10.00257301330566</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>9.600481033325195</v>
+        <v>9.879481315612793</v>
       </c>
       <c r="C14" t="n">
-        <v>7.839030265808105</v>
+        <v>9.791834831237793</v>
       </c>
       <c r="D14" t="n">
-        <v>11.36193180084229</v>
+        <v>9.967127799987793</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>10.38046741485596</v>
+        <v>9.874439239501953</v>
       </c>
       <c r="C15" t="n">
-        <v>8.445106506347656</v>
+        <v>9.798708915710449</v>
       </c>
       <c r="D15" t="n">
-        <v>12.31582832336426</v>
+        <v>9.950169563293457</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>10.42131233215332</v>
+        <v>9.878435134887695</v>
       </c>
       <c r="C16" t="n">
-        <v>8.279831886291504</v>
+        <v>9.787844657897949</v>
       </c>
       <c r="D16" t="n">
-        <v>12.56279277801514</v>
+        <v>9.969025611877441</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>9.794252395629883</v>
+        <v>9.897089958190918</v>
       </c>
       <c r="C17" t="n">
-        <v>7.911359786987305</v>
+        <v>9.790233612060547</v>
       </c>
       <c r="D17" t="n">
-        <v>11.67714500427246</v>
+        <v>10.00394630432129</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>9.821176528930664</v>
+        <v>9.876424789428711</v>
       </c>
       <c r="C18" t="n">
-        <v>7.842990398406982</v>
+        <v>9.726612091064453</v>
       </c>
       <c r="D18" t="n">
-        <v>11.79936218261719</v>
+        <v>10.02623748779297</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1314582824707</v>
+        <v>16.22846603393555</v>
       </c>
       <c r="C2" t="n">
-        <v>7.516527118016754</v>
+        <v>16.00382826848487</v>
       </c>
       <c r="D2" t="n">
-        <v>12.74638944692465</v>
+        <v>16.45310379938622</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>10.41731262207031</v>
+        <v>15.44387464523316</v>
       </c>
       <c r="C3" t="n">
-        <v>8.668042355660187</v>
+        <v>15.16504327249571</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16658288848044</v>
+        <v>15.7227060179706</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>8.891604709625245</v>
+        <v>14.62954568862915</v>
       </c>
       <c r="C4" t="n">
-        <v>6.909773753024739</v>
+        <v>14.32687087624145</v>
       </c>
       <c r="D4" t="n">
-        <v>10.87343566622575</v>
+        <v>14.93222050101685</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>9.103414058685303</v>
+        <v>13.95257349014282</v>
       </c>
       <c r="C5" t="n">
-        <v>8.037648263157623</v>
+        <v>13.78836778590407</v>
       </c>
       <c r="D5" t="n">
-        <v>10.16917985421298</v>
+        <v>14.11677919438158</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>10.12854661941528</v>
+        <v>13.45001163482666</v>
       </c>
       <c r="C6" t="n">
-        <v>7.845989696509609</v>
+        <v>12.93271746691602</v>
       </c>
       <c r="D6" t="n">
-        <v>12.41110354232096</v>
+        <v>13.9673058027373</v>
       </c>
     </row>
   </sheetData>
